--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35283.48061672273</v>
+        <v>7018482.075330914</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35283.48061672273</v>
+        <v>7018482.075330914</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21727.23025788955</v>
+        <v>1314557.217356669</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21727.23025788955</v>
+        <v>1314557.217356669</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343533600.880379</v>
+        <v>54787015.78542241</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12679.35104544335</v>
+        <v>1368976.490192553</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23565.08046194311</v>
+        <v>2442164.59584613</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34450.80987844285</v>
+        <v>3515352.70149971</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45801.86408358287</v>
+        <v>4586294.720960813</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57157.02384218538</v>
+        <v>5657576.277592218</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68509.84891641152</v>
+        <v>6728857.83422362</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79864.94402286406</v>
+        <v>7800139.39085502</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91217.70444494025</v>
+        <v>8871420.947486419</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102572.5662698752</v>
+        <v>9941658.372058013</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>113927.3731187017</v>
+        <v>11012123.5903684</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125282.1799675282</v>
+        <v>12082588.80867878</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136636.9868163547</v>
+        <v>13153054.02698918</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147991.7936651812</v>
+        <v>14223519.24529957</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159346.6005140077</v>
+        <v>15293984.46360997</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170701.4073628342</v>
+        <v>16364449.68192036</v>
       </c>
     </row>
   </sheetData>
